--- a/Planning/Planning_4_4_11_4.xlsx
+++ b/Planning/Planning_4_4_11_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60815A8-F698-4E2E-BF13-F022267D2A62}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBFED4-1B73-42D6-A13B-A166ED9724EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Punz, Strutzenberger</t>
+  </si>
+  <si>
+    <t>Item Storage</t>
+  </si>
+  <si>
+    <t>Trinkl, Punz, Strutzenberger</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,6 +467,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning/Planning_4_4_11_4.xlsx
+++ b/Planning/Planning_4_4_11_4.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FBFED4-1B73-42D6-A13B-A166ED9724EA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B378416-158D-434F-8ED4-20A21A12BE42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Task</t>
   </si>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>Trinkl, Punz, Strutzenberger</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>1h</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -430,6 +442,15 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
@@ -441,6 +462,15 @@
       <c r="B3" t="s">
         <v>14</v>
       </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -452,6 +482,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
@@ -463,6 +496,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
@@ -472,6 +508,15 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
         <v>6</v>
       </c>
       <c r="F6" t="s">

--- a/Planning/Planning_4_4_11_4.xlsx
+++ b/Planning/Planning_4_4_11_4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B378416-158D-434F-8ED4-20A21A12BE42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143BA97B-3D16-4C6C-ADAB-0EC4866F97B7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Task</t>
   </si>
@@ -76,16 +76,13 @@
     <t>Trinkl, Punz, Strutzenberger</t>
   </si>
   <si>
-    <t>5h</t>
-  </si>
-  <si>
     <t>6h</t>
   </si>
   <si>
     <t>4h</t>
   </si>
   <si>
-    <t>1h</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -443,13 +440,13 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -463,13 +460,13 @@
         <v>14</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -511,13 +508,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
